--- a/Welche Diagnosen wurden zuerst gestellt, R1.xlsx
+++ b/Welche Diagnosen wurden zuerst gestellt, R1.xlsx
@@ -384,7 +384,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.00852195625033925</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.000108559952233621</v>
+        <v>0.008864046973803072</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.0003799598328176736</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.002551158877490094</v>
+        <v>0.0003952122854561879</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>5.427997611681051e-05</v>
+        <v>0.00265356820234869</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.0004342398089344841</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="8">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.002062639092438799</v>
+        <v>0.0004516711833785004</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.0001628399283504315</v>
+        <v>0.002145438121047877</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>5.427997611681051e-05</v>
+        <v>0.0001693766937669377</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.04917765836183032</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.002931118710307767</v>
+        <v>0.05115176151761518</v>
       </c>
     </row>
     <row r="17">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>5.427997611681051e-05</v>
+        <v>0.003048780487804878</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.000108559952233621</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="20">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.000217119904467242</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.006079357325082777</v>
+        <v>0.0002258355916892502</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>5.427997611681051e-05</v>
+        <v>0.006323396567299007</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.000108559952233621</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.001139879498453021</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="26">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.0007599196656353471</v>
+        <v>0.001185636856368564</v>
       </c>
     </row>
     <row r="28">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.0005427997611681051</v>
+        <v>0.0007904245709123758</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>5.427997611681051e-05</v>
+        <v>0.0005645889792231255</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.0005427997611681051</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>5.427997611681051e-05</v>
+        <v>0.0005645889792231255</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>5.427997611681051e-05</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>5.427997611681051e-05</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.0008141996417521576</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.0004342398089344841</v>
+        <v>0.0008468834688346884</v>
       </c>
     </row>
     <row r="37">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.000108559952233621</v>
+        <v>0.0004516711833785004</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.001628399283504315</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.0003799598328176736</v>
+        <v>0.001693766937669377</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.001465559355153884</v>
+        <v>0.0003952122854561879</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>5.427997611681051e-05</v>
+        <v>0.001524390243902439</v>
       </c>
     </row>
     <row r="43">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>0.0004342398089344841</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.0004342398089344841</v>
+        <v>0.0004516711833785004</v>
       </c>
     </row>
     <row r="45">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>0.0003256798567008631</v>
+        <v>0.0004516711833785004</v>
       </c>
     </row>
     <row r="46">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.0007056396895185367</v>
+        <v>0.0003387533875338753</v>
       </c>
     </row>
     <row r="47">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>0.006676437062367693</v>
+        <v>0.0007339656729900633</v>
       </c>
     </row>
     <row r="48">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>0.007110676871302177</v>
+        <v>0.006944444444444444</v>
       </c>
     </row>
     <row r="49">
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>0.000108559952233621</v>
+        <v>0.007396115627822945</v>
       </c>
     </row>
     <row r="50">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>0.000217119904467242</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="51">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>0.000108559952233621</v>
+        <v>0.0002258355916892502</v>
       </c>
     </row>
     <row r="52">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>0.0007599196656353471</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="53">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>0.001954079140205178</v>
+        <v>0.0007904245709123758</v>
       </c>
     </row>
     <row r="54">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>0.007056396895185366</v>
+        <v>0.002032520325203252</v>
       </c>
     </row>
     <row r="55">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>0.0005970797372849156</v>
+        <v>0.007339656729900632</v>
       </c>
     </row>
     <row r="56">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>0.003093958638658199</v>
+        <v>0.0006210478771454381</v>
       </c>
     </row>
     <row r="57">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>0.000217119904467242</v>
+        <v>0.003218157181571816</v>
       </c>
     </row>
     <row r="58">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.004776637898279324</v>
+        <v>0.0002258355916892502</v>
       </c>
     </row>
     <row r="59">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>0.00857623622645606</v>
+        <v>0.004968383017163505</v>
       </c>
     </row>
     <row r="60">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>0.0006513597134017262</v>
+        <v>0.008920505871725383</v>
       </c>
     </row>
     <row r="61">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>0.0004885197850512946</v>
+        <v>0.0006775067750677507</v>
       </c>
     </row>
     <row r="62">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>0.000108559952233621</v>
+        <v>0.0005081300813008131</v>
       </c>
     </row>
     <row r="63">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>0.0003799598328176736</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="65">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>5.427997611681051e-05</v>
+        <v>0.0003952122854561879</v>
       </c>
     </row>
     <row r="66">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>0.0004885197850512946</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>5.427997611681051e-05</v>
+        <v>0.0005081300813008131</v>
       </c>
     </row>
     <row r="70">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>0.0002713998805840525</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>0.004613797969928893</v>
+        <v>0.0002822944896115628</v>
       </c>
     </row>
     <row r="72">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.003039678662541389</v>
+        <v>0.004799006323396567</v>
       </c>
     </row>
     <row r="73">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>0.001248439450686642</v>
+        <v>0.003161698283649503</v>
       </c>
     </row>
     <row r="74">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>0.000108559952233621</v>
+        <v>0.001298554652213189</v>
       </c>
     </row>
     <row r="75">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>0.0003799598328176736</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="76">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>0.0002713998805840525</v>
+        <v>0.0003952122854561879</v>
       </c>
     </row>
     <row r="77">
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.0005970797372849156</v>
+        <v>0.0002822944896115628</v>
       </c>
     </row>
     <row r="78">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>0.002225479020789231</v>
+        <v>0.0006210478771454381</v>
       </c>
     </row>
     <row r="79">
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>5.427997611681051e-05</v>
+        <v>0.002314814814814815</v>
       </c>
     </row>
     <row r="80">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>0.0003799598328176736</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>0.0003799598328176736</v>
+        <v>0.0003952122854561879</v>
       </c>
     </row>
     <row r="82">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>0.0001628399283504315</v>
+        <v>0.0003952122854561879</v>
       </c>
     </row>
     <row r="83">
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>5.427997611681051e-05</v>
+        <v>0.0001693766937669377</v>
       </c>
     </row>
     <row r="86">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>0.0007599196656353471</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>0.000108559952233621</v>
+        <v>0.0007904245709123758</v>
       </c>
     </row>
     <row r="88">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>0.002985398686424578</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="89">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>0.003962438256527167</v>
+        <v>0.003105239385727191</v>
       </c>
     </row>
     <row r="90">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>0.0007599196656353471</v>
+        <v>0.004121499548328816</v>
       </c>
     </row>
     <row r="91">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>0.002388318949139662</v>
+        <v>0.0007904245709123758</v>
       </c>
     </row>
     <row r="92">
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>0.000108559952233621</v>
+        <v>0.002484191508581752</v>
       </c>
     </row>
     <row r="94">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>0.01150735493676383</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="95">
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>0.003799598328176736</v>
+        <v>0.01196928635953026</v>
       </c>
     </row>
     <row r="96">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>0.001465559355153884</v>
+        <v>0.003952122854561879</v>
       </c>
     </row>
     <row r="97">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>0.006947836942951745</v>
+        <v>0.001524390243902439</v>
       </c>
     </row>
     <row r="98">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>0.001356999402920263</v>
+        <v>0.007226738934056007</v>
       </c>
     </row>
     <row r="99">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>0.001519839331270694</v>
+        <v>0.001411472448057814</v>
       </c>
     </row>
     <row r="100">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>0.003039678662541389</v>
+        <v>0.001580849141824752</v>
       </c>
     </row>
     <row r="101">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>0.001139879498453021</v>
+        <v>0.003161698283649503</v>
       </c>
     </row>
     <row r="102">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>0.3169950605221734</v>
+        <v>0.001185636856368564</v>
       </c>
     </row>
     <row r="103">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>0.03734462356836563</v>
+        <v>0.3297199638663053</v>
       </c>
     </row>
     <row r="104">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>0.06247625251044889</v>
+        <v>0.03884372177055104</v>
       </c>
     </row>
     <row r="105">
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.01091027519947891</v>
+        <v>0.06498419150858176</v>
       </c>
     </row>
     <row r="106">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>0.03957010258915486</v>
+        <v>0.01134823848238482</v>
       </c>
     </row>
     <row r="107">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>0.0003256798567008631</v>
+        <v>0.04115853658536586</v>
       </c>
     </row>
     <row r="108">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>0.0007599196656353471</v>
+        <v>0.0003387533875338753</v>
       </c>
     </row>
     <row r="109">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>0.000108559952233621</v>
+        <v>0.0007904245709123758</v>
       </c>
     </row>
     <row r="110">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>0.0008141996417521576</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="111">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>0.00852195625033925</v>
+        <v>0.0008468834688346884</v>
       </c>
     </row>
     <row r="112">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>0.001302719426803452</v>
+        <v>0.008864046973803072</v>
       </c>
     </row>
     <row r="113">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>0.006079357325082777</v>
+        <v>0.001355013550135501</v>
       </c>
     </row>
     <row r="114">
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>0.0002713998805840525</v>
+        <v>0.006323396567299007</v>
       </c>
     </row>
     <row r="115">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>0.002822558758074147</v>
+        <v>0.0002822944896115628</v>
       </c>
     </row>
     <row r="116">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>0.0003799598328176736</v>
+        <v>0.002935862691960253</v>
       </c>
     </row>
     <row r="117">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>0.003908158280410357</v>
+        <v>0.0003952122854561879</v>
       </c>
     </row>
     <row r="118">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>0.0009770395701025891</v>
+        <v>0.004065040650406504</v>
       </c>
     </row>
     <row r="120">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>0.0009227595939857786</v>
+        <v>0.001016260162601626</v>
       </c>
     </row>
     <row r="121">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>0.0005427997611681051</v>
+        <v>0.0009598012646793134</v>
       </c>
     </row>
     <row r="122">
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>0.00108559952233621</v>
+        <v>0.0005645889792231255</v>
       </c>
     </row>
     <row r="123">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>5.427997611681051e-05</v>
+        <v>0.001129177958446251</v>
       </c>
     </row>
     <row r="124">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>0.003365358519242251</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.0003799598328176736</v>
+        <v>0.003500451671183378</v>
       </c>
     </row>
     <row r="126">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="C126">
-        <v>0.0005970797372849156</v>
+        <v>0.0003952122854561879</v>
       </c>
     </row>
     <row r="127">
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="C127">
-        <v>0.0005970797372849156</v>
+        <v>0.0006210478771454381</v>
       </c>
     </row>
     <row r="128">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>0.001248439450686642</v>
+        <v>0.0006210478771454381</v>
       </c>
     </row>
     <row r="129">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>0.0006513597134017262</v>
+        <v>0.001298554652213189</v>
       </c>
     </row>
     <row r="130">
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="C130">
-        <v>0.000217119904467242</v>
+        <v>0.0006775067750677507</v>
       </c>
     </row>
     <row r="131">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="C131">
-        <v>0.002496878901373283</v>
+        <v>0.0002258355916892502</v>
       </c>
     </row>
     <row r="132">
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="C132">
-        <v>0.003311078543125441</v>
+        <v>0.002597109304426378</v>
       </c>
     </row>
     <row r="133">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="C133">
-        <v>0.00434239808934484</v>
+        <v>0.003443992773261066</v>
       </c>
     </row>
     <row r="134">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>0.0005970797372849156</v>
+        <v>0.004516711833785004</v>
       </c>
     </row>
     <row r="135">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>0.001465559355153884</v>
+        <v>0.0006210478771454381</v>
       </c>
     </row>
     <row r="136">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="C136">
-        <v>0.003636758399826304</v>
+        <v>0.001524390243902439</v>
       </c>
     </row>
     <row r="137">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="C137">
-        <v>0.0191065515931173</v>
+        <v>0.003782746160794941</v>
       </c>
     </row>
     <row r="138">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>0.002442598925256473</v>
+        <v>0.01987353206865402</v>
       </c>
     </row>
     <row r="139">
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>0.0007599196656353471</v>
+        <v>0.002540650406504065</v>
       </c>
     </row>
     <row r="140">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>0.00537371763556424</v>
+        <v>0.0007904245709123758</v>
       </c>
     </row>
     <row r="141">
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="C141">
-        <v>0.001356999402920263</v>
+        <v>0.005589430894308943</v>
       </c>
     </row>
     <row r="142">
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="C142">
-        <v>5.427997611681051e-05</v>
+        <v>0.001411472448057814</v>
       </c>
     </row>
     <row r="143">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C143">
-        <v>0.0002713998805840525</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="144">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="C144">
-        <v>0.001356999402920263</v>
+        <v>0.0002822944896115628</v>
       </c>
     </row>
     <row r="145">
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="C145">
-        <v>0.0001628399283504315</v>
+        <v>0.001411472448057814</v>
       </c>
     </row>
     <row r="146">
@@ -2256,7 +2256,7 @@
         </is>
       </c>
       <c r="C146">
-        <v>5.427997611681051e-05</v>
+        <v>0.0001693766937669377</v>
       </c>
     </row>
     <row r="147">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>0.002062639092438799</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="148">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>0.0003799598328176736</v>
+        <v>0.002145438121047877</v>
       </c>
     </row>
     <row r="149">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="C149">
-        <v>0.000108559952233621</v>
+        <v>0.0003952122854561879</v>
       </c>
     </row>
     <row r="150">
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="C150">
-        <v>0.007219236823535797</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="151">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C151">
-        <v>0.00108559952233621</v>
+        <v>0.00750903342366757</v>
       </c>
     </row>
     <row r="152">
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>0.000108559952233621</v>
+        <v>0.001129177958446251</v>
       </c>
     </row>
     <row r="154">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>0.001356999402920263</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="155">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>5.427997611681051e-05</v>
+        <v>0.001411472448057814</v>
       </c>
     </row>
     <row r="157">
@@ -2399,7 +2399,7 @@
         </is>
       </c>
       <c r="C157">
-        <v>0.0001628399283504315</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="C168">
-        <v>5.427997611681051e-05</v>
+        <v>0.0001693766937669377</v>
       </c>
     </row>
     <row r="169">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C174">
-        <v>5.427997611681051e-05</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="C175">
-        <v>0.000108559952233621</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="176">
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="C177">
-        <v>0.000217119904467242</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="178">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="C178">
-        <v>0.0001628399283504315</v>
+        <v>0.0002258355916892502</v>
       </c>
     </row>
     <row r="179">
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="C182">
-        <v>0.0002713998805840525</v>
+        <v>0.0001693766937669377</v>
       </c>
     </row>
     <row r="183">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>0.0004342398089344841</v>
+        <v>0.0002822944896115628</v>
       </c>
     </row>
     <row r="184">
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="C184">
-        <v>0.0003256798567008631</v>
+        <v>0.0004516711833785004</v>
       </c>
     </row>
     <row r="185">
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="C186">
-        <v>0.05520273571079629</v>
+        <v>0.0003387533875338753</v>
       </c>
     </row>
     <row r="187">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C187">
-        <v>0.008087716441404765</v>
+        <v>0.05741869918699187</v>
       </c>
     </row>
     <row r="188">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C188">
-        <v>0.001302719426803452</v>
+        <v>0.008412375790424571</v>
       </c>
     </row>
     <row r="189">
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="C189">
-        <v>0.001791239211854747</v>
+        <v>0.001355013550135501</v>
       </c>
     </row>
     <row r="190">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="C190">
-        <v>0.001411279379037073</v>
+        <v>0.001863143631436314</v>
       </c>
     </row>
     <row r="191">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="C191">
-        <v>0.002225479020789231</v>
+        <v>0.001467931345980127</v>
       </c>
     </row>
     <row r="192">
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C192">
-        <v>0.001356999402920263</v>
+        <v>0.002314814814814815</v>
       </c>
     </row>
     <row r="193">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="C193">
-        <v>0.03593334418932856</v>
+        <v>0.001411472448057814</v>
       </c>
     </row>
     <row r="194">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="C194">
-        <v>0.0009227595939857786</v>
+        <v>0.03737579042457091</v>
       </c>
     </row>
     <row r="195">
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="C195">
-        <v>5.427997611681051e-05</v>
+        <v>0.0009598012646793134</v>
       </c>
     </row>
     <row r="196">
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="C197">
-        <v>0.004505238017695272</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="198">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="C198">
-        <v>5.427997611681051e-05</v>
+        <v>0.004686088527551942</v>
       </c>
     </row>
     <row r="199">
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="C199">
-        <v>0.0003256798567008631</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="200">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>0.000217119904467242</v>
+        <v>0.0003387533875338753</v>
       </c>
     </row>
     <row r="201">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C201">
-        <v>0.002496878901373283</v>
+        <v>0.0002258355916892502</v>
       </c>
     </row>
     <row r="202">
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="C202">
-        <v>0.0001628399283504315</v>
+        <v>0.002597109304426378</v>
       </c>
     </row>
     <row r="203">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C203">
-        <v>0.0007599196656353471</v>
+        <v>0.0001693766937669377</v>
       </c>
     </row>
     <row r="204">
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="C204">
-        <v>0.0002713998805840525</v>
+        <v>0.0007904245709123758</v>
       </c>
     </row>
     <row r="205">
@@ -3023,7 +3023,7 @@
         </is>
       </c>
       <c r="C205">
-        <v>0.0005427997611681051</v>
+        <v>0.0002822944896115628</v>
       </c>
     </row>
     <row r="206">
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="C206">
-        <v>0.0001628399283504315</v>
+        <v>0.0005645889792231255</v>
       </c>
     </row>
     <row r="207">
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="C207">
-        <v>0.0005427997611681051</v>
+        <v>0.0001693766937669377</v>
       </c>
     </row>
     <row r="208">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>0.0002713998805840525</v>
+        <v>0.0005645889792231255</v>
       </c>
     </row>
     <row r="209">
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C209">
-        <v>0.000217119904467242</v>
+        <v>0.0002822944896115628</v>
       </c>
     </row>
     <row r="210">
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C210">
-        <v>0.001356999402920263</v>
+        <v>0.0002258355916892502</v>
       </c>
     </row>
     <row r="211">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C211">
-        <v>0.0001628399283504315</v>
+        <v>0.001411472448057814</v>
       </c>
     </row>
     <row r="212">
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="C212">
-        <v>0.000108559952233621</v>
+        <v>0.0001693766937669377</v>
       </c>
     </row>
     <row r="213">
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="C214">
-        <v>0.000108559952233621</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="215">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="C216">
-        <v>0.0002713998805840525</v>
+        <v>0.0001129177958446251</v>
       </c>
     </row>
     <row r="217">
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="C217">
-        <v>0.0001628399283504315</v>
+        <v>0.0002822944896115628</v>
       </c>
     </row>
     <row r="218">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C218">
-        <v>0.002388318949139662</v>
+        <v>0.0001693766937669377</v>
       </c>
     </row>
     <row r="219">
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="C219">
-        <v>0.0001628399283504315</v>
+        <v>0.002484191508581752</v>
       </c>
     </row>
     <row r="220">
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="C220">
-        <v>0.004233838137111219</v>
+        <v>0.0001693766937669377</v>
       </c>
     </row>
     <row r="221">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C222">
-        <v>5.427997611681051e-05</v>
+        <v>0.004403794037940379</v>
       </c>
     </row>
     <row r="223">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>0.0001628399283504315</v>
+        <v>5.645889792231255e-05</v>
       </c>
     </row>
     <row r="229">
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="C229">
-        <v>0.02464310915703197</v>
+        <v>0.0001693766937669377</v>
       </c>
     </row>
     <row r="230">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="C230">
-        <v>0.02817130760462466</v>
+        <v>0.0256323396567299</v>
       </c>
     </row>
     <row r="231">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="C231">
-        <v>0.0002713998805840525</v>
+        <v>0.02930216802168022</v>
       </c>
     </row>
     <row r="232">
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="C232">
-        <v>0.0010313195462194</v>
+        <v>0.0002822944896115628</v>
       </c>
     </row>
     <row r="233">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C233">
-        <v>0.0003256798567008631</v>
+        <v>0.001072719060523938</v>
       </c>
     </row>
     <row r="234">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="C234">
-        <v>0.003582478423709494</v>
+        <v>0.0003387533875338753</v>
       </c>
     </row>
     <row r="235">
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="C235">
-        <v>0.005916517396732345</v>
+        <v>0.003726287262872629</v>
       </c>
     </row>
     <row r="236">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="C236">
-        <v>0.02301470987352765</v>
+        <v>0.006154019873532069</v>
       </c>
     </row>
     <row r="237">
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="C242">
-        <v>0.03870162297128589</v>
+        <v>0.02393857271906052</v>
       </c>
     </row>
   </sheetData>

--- a/Welche Diagnosen wurden zuerst gestellt, R1.xlsx
+++ b/Welche Diagnosen wurden zuerst gestellt, R1.xlsx
@@ -384,7 +384,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.0001129177958446251</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.008864046973803072</v>
+        <v>0.008919114777858297</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.0001129177958446251</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.0003952122854561879</v>
+        <v>0.0003344668041696861</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.00265356820234869</v>
+        <v>0.002842967835442333</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="8">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.0004516711833785004</v>
+        <v>0.0004459557388929149</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.002145438121047877</v>
+        <v>0.00217403422710296</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.0001693766937669377</v>
+        <v>0.0001672334020848431</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.05115176151761518</v>
+        <v>0.05234405485255588</v>
       </c>
     </row>
     <row r="17">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.003048780487804878</v>
+        <v>0.003177434639612019</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="20">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.0001129177958446251</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.0002258355916892502</v>
+        <v>0.0002229778694464574</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.006323396567299007</v>
+        <v>0.00652210268130888</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.0001129177958446251</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="26">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.001185636856368564</v>
+        <v>0.001059144879870673</v>
       </c>
     </row>
     <row r="28">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.0007904245709123758</v>
+        <v>0.0007246780757009867</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.0005645889792231255</v>
+        <v>0.0005574446736161436</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>0.0005645889792231255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>5.645889792231255e-05</v>
+        <v>0.0003902112715313005</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.0008468834688346884</v>
+        <v>0.0008361670104242154</v>
       </c>
     </row>
     <row r="37">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.0004516711833785004</v>
+        <v>0.0004459557388929149</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.0001129177958446251</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.001693766937669377</v>
+        <v>0.001616589553486816</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.0003952122854561879</v>
+        <v>0.0003902112715313005</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>0.001524390243902439</v>
+        <v>0.001393611684040359</v>
       </c>
     </row>
     <row r="43">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.0004516711833785004</v>
+        <v>0.0003902112715313005</v>
       </c>
     </row>
     <row r="45">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>0.0004516711833785004</v>
+        <v>0.0004459557388929149</v>
       </c>
     </row>
     <row r="46">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.0003387533875338753</v>
+        <v>0.0002787223368080718</v>
       </c>
     </row>
     <row r="47">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>0.0007339656729900633</v>
+        <v>0.0007804225430626011</v>
       </c>
     </row>
     <row r="48">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>0.006944444444444444</v>
+        <v>0.006745080550755338</v>
       </c>
     </row>
     <row r="49">
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>0.007396115627822945</v>
+        <v>0.00652210268130888</v>
       </c>
     </row>
     <row r="50">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>0.0001129177958446251</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="51">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>0.0002258355916892502</v>
+        <v>0.0001672334020848431</v>
       </c>
     </row>
     <row r="52">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>0.0001129177958446251</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="53">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>0.0007904245709123758</v>
+        <v>0.0006689336083393723</v>
       </c>
     </row>
     <row r="54">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>0.002032520325203252</v>
+        <v>0.001728078488210045</v>
       </c>
     </row>
     <row r="55">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>0.007339656729900632</v>
+        <v>0.006856569485478566</v>
       </c>
     </row>
     <row r="56">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>0.0006210478771454381</v>
+        <v>0.000613189140977758</v>
       </c>
     </row>
     <row r="57">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>0.003218157181571816</v>
+        <v>0.00306594570488879</v>
       </c>
     </row>
     <row r="58">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.0002258355916892502</v>
+        <v>0.0002229778694464574</v>
       </c>
     </row>
     <row r="59">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>0.004968383017163505</v>
+        <v>0.004626790791013992</v>
       </c>
     </row>
     <row r="60">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>0.008920505871725383</v>
+        <v>0.008863370310496683</v>
       </c>
     </row>
     <row r="61">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>0.0006775067750677507</v>
+        <v>0.0006689336083393723</v>
       </c>
     </row>
     <row r="62">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>0.0005081300813008131</v>
+        <v>0.0003902112715313005</v>
       </c>
     </row>
     <row r="63">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>0.0001129177958446251</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="65">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>0.0003952122854561879</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="66">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>0.0005081300813008131</v>
+        <v>0.0005017002062545292</v>
       </c>
     </row>
     <row r="70">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>0.0002822944896115628</v>
+        <v>0.0002787223368080718</v>
       </c>
     </row>
     <row r="72">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.004799006323396567</v>
+        <v>0.004459557388929149</v>
       </c>
     </row>
     <row r="73">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>0.003161698283649503</v>
+        <v>0.003010201237527176</v>
       </c>
     </row>
     <row r="74">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>0.001298554652213189</v>
+        <v>0.001170633814593902</v>
       </c>
     </row>
     <row r="75">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>0.0001129177958446251</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="76">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>0.0003952122854561879</v>
+        <v>0.0003344668041696861</v>
       </c>
     </row>
     <row r="77">
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.0002822944896115628</v>
+        <v>0.0003902112715313005</v>
       </c>
     </row>
     <row r="78">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>0.0006210478771454381</v>
+        <v>0.000613189140977758</v>
       </c>
     </row>
     <row r="79">
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>0.002314814814814815</v>
+        <v>0.002508501031272646</v>
       </c>
     </row>
     <row r="80">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>0.0003952122854561879</v>
+        <v>0.0002787223368080718</v>
       </c>
     </row>
     <row r="82">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>0.0003952122854561879</v>
+        <v>0.0003902112715313005</v>
       </c>
     </row>
     <row r="83">
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>0.0001693766937669377</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="86">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>5.645889792231255e-05</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="87">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>0.0007904245709123758</v>
+        <v>0.000613189140977758</v>
       </c>
     </row>
     <row r="88">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>0.0001129177958446251</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="89">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>0.003105239385727191</v>
+        <v>0.002954456770165561</v>
       </c>
     </row>
     <row r="90">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>0.004121499548328816</v>
+        <v>0.004180835052121077</v>
       </c>
     </row>
     <row r="91">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>0.0007904245709123758</v>
+        <v>0.0008361670104242154</v>
       </c>
     </row>
     <row r="92">
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>0.002484191508581752</v>
+        <v>0.00217403422710296</v>
       </c>
     </row>
     <row r="94">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>0.0001129177958446251</v>
+        <v>0.0001672334020848431</v>
       </c>
     </row>
     <row r="95">
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>0.01196928635953026</v>
+        <v>0.01075868220079157</v>
       </c>
     </row>
     <row r="96">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>0.003952122854561879</v>
+        <v>0.003790623780589776</v>
       </c>
     </row>
     <row r="97">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>0.001524390243902439</v>
+        <v>0.001505100618763588</v>
       </c>
     </row>
     <row r="98">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>0.007226738934056007</v>
+        <v>0.006466358213947265</v>
       </c>
     </row>
     <row r="99">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>0.001411472448057814</v>
+        <v>0.001337867216678745</v>
       </c>
     </row>
     <row r="100">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>0.001580849141824752</v>
+        <v>0.001672334020848431</v>
       </c>
     </row>
     <row r="101">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>0.003161698283649503</v>
+        <v>0.002954456770165561</v>
       </c>
     </row>
     <row r="102">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>0.001185636856368564</v>
+        <v>0.001226378281955516</v>
       </c>
     </row>
     <row r="103">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>0.3297199638663053</v>
+        <v>0.3328502146161993</v>
       </c>
     </row>
     <row r="104">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>0.03884372177055104</v>
+        <v>0.04008027203300073</v>
       </c>
     </row>
     <row r="105">
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.06498419150858176</v>
+        <v>0.0663916606276827</v>
       </c>
     </row>
     <row r="106">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>0.01134823848238482</v>
+        <v>0.01159484921121579</v>
       </c>
     </row>
     <row r="107">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>0.04115853658536586</v>
+        <v>0.04264451753163499</v>
       </c>
     </row>
     <row r="108">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>0.0003387533875338753</v>
+        <v>0.0003344668041696861</v>
       </c>
     </row>
     <row r="109">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>0.0007904245709123758</v>
+        <v>0.0006689336083393723</v>
       </c>
     </row>
     <row r="110">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>0.0001129177958446251</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="111">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>0.0008468834688346884</v>
+        <v>0.0008361670104242154</v>
       </c>
     </row>
     <row r="112">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>0.008864046973803072</v>
+        <v>0.009309326049389598</v>
       </c>
     </row>
     <row r="113">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>0.001355013550135501</v>
+        <v>0.001337867216678745</v>
       </c>
     </row>
     <row r="114">
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>0.006323396567299007</v>
+        <v>0.006131891409777579</v>
       </c>
     </row>
     <row r="115">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>0.0002822944896115628</v>
+        <v>0.0002229778694464574</v>
       </c>
     </row>
     <row r="116">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>0.002935862691960253</v>
+        <v>0.002954456770165561</v>
       </c>
     </row>
     <row r="117">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>0.0003952122854561879</v>
+        <v>0.0003902112715313005</v>
       </c>
     </row>
     <row r="118">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>0.004065040650406504</v>
+        <v>0.003846368247951391</v>
       </c>
     </row>
     <row r="120">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>0.001016260162601626</v>
+        <v>0.001003400412509058</v>
       </c>
     </row>
     <row r="121">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>0.0009598012646793134</v>
+        <v>0.0008919114777858298</v>
       </c>
     </row>
     <row r="122">
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>0.0005645889792231255</v>
+        <v>0.000613189140977758</v>
       </c>
     </row>
     <row r="123">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>0.001129177958446251</v>
+        <v>0.001170633814593902</v>
       </c>
     </row>
     <row r="124">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.003500451671183378</v>
+        <v>0.003344668041696862</v>
       </c>
     </row>
     <row r="126">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="C126">
-        <v>0.0003952122854561879</v>
+        <v>0.0003344668041696861</v>
       </c>
     </row>
     <row r="127">
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="C127">
-        <v>0.0006210478771454381</v>
+        <v>0.0005574446736161436</v>
       </c>
     </row>
     <row r="128">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>0.0006210478771454381</v>
+        <v>0.0005574446736161436</v>
       </c>
     </row>
     <row r="129">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>0.001298554652213189</v>
+        <v>0.001337867216678745</v>
       </c>
     </row>
     <row r="130">
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="C130">
-        <v>0.0006775067750677507</v>
+        <v>0.0006689336083393723</v>
       </c>
     </row>
     <row r="131">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="C131">
-        <v>0.0002258355916892502</v>
+        <v>0.0001672334020848431</v>
       </c>
     </row>
     <row r="132">
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="C132">
-        <v>0.002597109304426378</v>
+        <v>0.002229778694464574</v>
       </c>
     </row>
     <row r="133">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="C133">
-        <v>0.003443992773261066</v>
+        <v>0.003233179106973633</v>
       </c>
     </row>
     <row r="134">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>0.004516711833785004</v>
+        <v>0.004236579519482691</v>
       </c>
     </row>
     <row r="135">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>0.0006210478771454381</v>
+        <v>0.000613189140977758</v>
       </c>
     </row>
     <row r="136">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="C136">
-        <v>0.001524390243902439</v>
+        <v>0.001449356151401973</v>
       </c>
     </row>
     <row r="137">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="C137">
-        <v>0.003782746160794941</v>
+        <v>0.003344668041696862</v>
       </c>
     </row>
     <row r="138">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>0.01987353206865402</v>
+        <v>0.02029098611962763</v>
       </c>
     </row>
     <row r="139">
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>0.002540650406504065</v>
+        <v>0.002397012096549417</v>
       </c>
     </row>
     <row r="140">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>0.0007904245709123758</v>
+        <v>0.0007804225430626011</v>
       </c>
     </row>
     <row r="141">
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="C141">
-        <v>0.005589430894308943</v>
+        <v>0.005462957801438208</v>
       </c>
     </row>
     <row r="142">
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="C142">
-        <v>0.001411472448057814</v>
+        <v>0.001003400412509058</v>
       </c>
     </row>
     <row r="143">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C143">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="144">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="C144">
-        <v>0.0002822944896115628</v>
+        <v>0.0002787223368080718</v>
       </c>
     </row>
     <row r="145">
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="C145">
-        <v>0.001411472448057814</v>
+        <v>0.001393611684040359</v>
       </c>
     </row>
     <row r="146">
@@ -2256,7 +2256,7 @@
         </is>
       </c>
       <c r="C146">
-        <v>0.0001693766937669377</v>
+        <v>0.0001672334020848431</v>
       </c>
     </row>
     <row r="147">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="148">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>0.002145438121047877</v>
+        <v>0.001895311890294888</v>
       </c>
     </row>
     <row r="149">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="C149">
-        <v>0.0003952122854561879</v>
+        <v>0.0003902112715313005</v>
       </c>
     </row>
     <row r="150">
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="C150">
-        <v>0.0001129177958446251</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="151">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C151">
-        <v>0.00750903342366757</v>
+        <v>0.00741401415909471</v>
       </c>
     </row>
     <row r="152">
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>0.001129177958446251</v>
+        <v>0.0008361670104242154</v>
       </c>
     </row>
     <row r="154">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>0.0001129177958446251</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="155">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>0.001411472448057814</v>
+        <v>0.001449356151401973</v>
       </c>
     </row>
     <row r="157">
@@ -2399,7 +2399,7 @@
         </is>
       </c>
       <c r="C157">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="C168">
-        <v>0.0001693766937669377</v>
+        <v>0.0001672334020848431</v>
       </c>
     </row>
     <row r="169">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C174">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="C175">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="176">
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="C177">
-        <v>0.0001129177958446251</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="178">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="C178">
-        <v>0.0002258355916892502</v>
+        <v>0.0002229778694464574</v>
       </c>
     </row>
     <row r="179">
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="C182">
-        <v>0.0001693766937669377</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="183">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>0.0002822944896115628</v>
+        <v>0.0002229778694464574</v>
       </c>
     </row>
     <row r="184">
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="C184">
-        <v>0.0004516711833785004</v>
+        <v>0.0004459557388929149</v>
       </c>
     </row>
     <row r="185">
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="C186">
-        <v>0.0003387533875338753</v>
+        <v>0.0003902112715313005</v>
       </c>
     </row>
     <row r="187">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C187">
-        <v>0.05741869918699187</v>
+        <v>0.05914487987067284</v>
       </c>
     </row>
     <row r="188">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C188">
-        <v>0.008412375790424571</v>
+        <v>0.008528903506326997</v>
       </c>
     </row>
     <row r="189">
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="C189">
-        <v>0.001355013550135501</v>
+        <v>0.001393611684040359</v>
       </c>
     </row>
     <row r="190">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="C190">
-        <v>0.001863143631436314</v>
+        <v>0.001728078488210045</v>
       </c>
     </row>
     <row r="191">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="C191">
-        <v>0.001467931345980127</v>
+        <v>0.001393611684040359</v>
       </c>
     </row>
     <row r="192">
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C192">
-        <v>0.002314814814814815</v>
+        <v>0.002341267629187803</v>
       </c>
     </row>
     <row r="193">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="C193">
-        <v>0.001411472448057814</v>
+        <v>0.001449356151401973</v>
       </c>
     </row>
     <row r="194">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="C194">
-        <v>0.03737579042457091</v>
+        <v>0.03812921567534422</v>
       </c>
     </row>
     <row r="195">
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="C195">
-        <v>0.0009598012646793134</v>
+        <v>0.001003400412509058</v>
       </c>
     </row>
     <row r="196">
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="C197">
-        <v>5.645889792231255e-05</v>
+        <v>5.574446736161436e-05</v>
       </c>
     </row>
     <row r="198">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="C198">
-        <v>0.004686088527551942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="C199">
-        <v>5.645889792231255e-05</v>
+        <v>0.005351468866714978</v>
       </c>
     </row>
     <row r="200">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>0.0003387533875338753</v>
+        <v>0.0002229778694464574</v>
       </c>
     </row>
     <row r="201">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C201">
-        <v>0.0002258355916892502</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="202">
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="C202">
-        <v>0.002597109304426378</v>
+        <v>0.002731478900719104</v>
       </c>
     </row>
     <row r="203">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C203">
-        <v>0.0001693766937669377</v>
+        <v>0.0002229778694464574</v>
       </c>
     </row>
     <row r="204">
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="C204">
-        <v>0.0007904245709123758</v>
+        <v>0.000613189140977758</v>
       </c>
     </row>
     <row r="205">
@@ -3023,7 +3023,7 @@
         </is>
       </c>
       <c r="C205">
-        <v>0.0002822944896115628</v>
+        <v>0.0002787223368080718</v>
       </c>
     </row>
     <row r="206">
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="C206">
-        <v>0.0005645889792231255</v>
+        <v>0.0005017002062545292</v>
       </c>
     </row>
     <row r="207">
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="C207">
-        <v>0.0001693766937669377</v>
+        <v>0.0001672334020848431</v>
       </c>
     </row>
     <row r="208">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>0.0005645889792231255</v>
+        <v>0.0005574446736161436</v>
       </c>
     </row>
     <row r="209">
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C209">
-        <v>0.0002822944896115628</v>
+        <v>0.0002787223368080718</v>
       </c>
     </row>
     <row r="210">
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C210">
-        <v>0.0002258355916892502</v>
+        <v>0.0002229778694464574</v>
       </c>
     </row>
     <row r="211">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C211">
-        <v>0.001411472448057814</v>
+        <v>0.001226378281955516</v>
       </c>
     </row>
     <row r="212">
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="C212">
-        <v>0.0001693766937669377</v>
+        <v>0.0001672334020848431</v>
       </c>
     </row>
     <row r="213">
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="C214">
-        <v>0.0001129177958446251</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="215">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="C216">
-        <v>0.0001129177958446251</v>
+        <v>0.0001114889347232287</v>
       </c>
     </row>
     <row r="217">
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="C217">
-        <v>0.0002822944896115628</v>
+        <v>0.0002787223368080718</v>
       </c>
     </row>
     <row r="218">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C218">
-        <v>0.0001693766937669377</v>
+        <v>0.0001672334020848431</v>
       </c>
     </row>
     <row r="219">
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="C219">
-        <v>0.002484191508581752</v>
+        <v>0.002397012096549417</v>
       </c>
     </row>
     <row r="220">
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="C220">
-        <v>0.0001693766937669377</v>
+        <v>0.0001672334020848431</v>
       </c>
     </row>
     <row r="221">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C222">
-        <v>0.004403794037940379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>5.645889792231255e-05</v>
+        <v>0.004682535258375606</v>
       </c>
     </row>
     <row r="229">
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="C229">
-        <v>0.0001693766937669377</v>
+        <v>0.0001672334020848431</v>
       </c>
     </row>
     <row r="230">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="C230">
-        <v>0.0256323396567299</v>
+        <v>0.02558671051898099</v>
       </c>
     </row>
     <row r="231">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="C231">
-        <v>0.02930216802168022</v>
+        <v>0.0279279781481688</v>
       </c>
     </row>
     <row r="232">
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="C232">
-        <v>0.0002822944896115628</v>
+        <v>0.0002229778694464574</v>
       </c>
     </row>
     <row r="233">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C233">
-        <v>0.001072719060523938</v>
+        <v>0.001003400412509058</v>
       </c>
     </row>
     <row r="234">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="C234">
-        <v>0.0003387533875338753</v>
+        <v>0.0002229778694464574</v>
       </c>
     </row>
     <row r="235">
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="C235">
-        <v>0.003726287262872629</v>
+        <v>0.00345615697642009</v>
       </c>
     </row>
     <row r="236">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="C236">
-        <v>0.006154019873532069</v>
+        <v>0.005295724399353365</v>
       </c>
     </row>
     <row r="237">
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="C242">
-        <v>0.02393857271906052</v>
+        <v>0.02480628797591839</v>
       </c>
     </row>
   </sheetData>
